--- a/airtel_bharti/Copy of Command_status.xlsx
+++ b/airtel_bharti/Copy of Command_status.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="103">
   <si>
     <t xml:space="preserve">Pre Commands(IOS)</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">show ip bgp summary</t>
   </si>
   <si>
-    <t xml:space="preserve">show bgp ipv4 unicast summary</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">show ip eigrp vrf VRFNAME interface</t>
@@ -127,6 +127,9 @@
     <t xml:space="preserve">show ip igmp groups</t>
   </si>
   <si>
+    <t xml:space="preserve">NA(GROUP ACCOUNTED COLUMN EMPTY)</t>
+  </si>
+  <si>
     <t xml:space="preserve">show igmp groups</t>
   </si>
   <si>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">show bgp ipv4 mdt summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created TEXTFSM Not Taking all attributes</t>
   </si>
   <si>
     <t xml:space="preserve">Textfsm is der just have to confirm it</t>
@@ -335,7 +341,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -370,8 +376,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +436,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF009933"/>
         <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF99"/>
+        <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -505,16 +523,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -573,7 +591,7 @@
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF33FF99"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
@@ -600,8 +618,8 @@
   </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B79" activeCellId="0" sqref="B79"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="C8 D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -700,9 +718,6 @@
         <v>7</v>
       </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="9" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
@@ -736,13 +751,13 @@
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -750,13 +765,13 @@
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -764,13 +779,13 @@
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -849,10 +864,10 @@
         <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>4</v>
@@ -860,44 +875,44 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>4</v>
+        <v>38</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>4</v>
@@ -905,27 +920,27 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>4</v>
@@ -933,27 +948,27 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
-        <v>47</v>
+      <c r="A24" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>48</v>
+      <c r="C24" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>4</v>
@@ -961,13 +976,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>4</v>
@@ -975,13 +990,13 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>4</v>
@@ -989,13 +1004,13 @@
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>4</v>
@@ -1003,13 +1018,13 @@
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>4</v>
@@ -1017,41 +1032,41 @@
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="A30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>7</v>
@@ -1059,13 +1074,13 @@
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -1073,13 +1088,13 @@
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>4</v>
@@ -1087,13 +1102,13 @@
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>7</v>
@@ -1101,13 +1116,13 @@
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>4</v>
@@ -1115,13 +1130,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>4</v>
@@ -1129,13 +1144,13 @@
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>4</v>
@@ -1143,13 +1158,13 @@
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>4</v>
@@ -1157,27 +1172,27 @@
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>4</v>
@@ -1185,13 +1200,13 @@
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>4</v>
@@ -1199,13 +1214,13 @@
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>4</v>
@@ -1213,13 +1228,13 @@
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>4</v>
@@ -1227,13 +1242,13 @@
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>4</v>
@@ -1241,13 +1256,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>4</v>
@@ -1255,13 +1270,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>4</v>
@@ -1269,13 +1284,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>4</v>
@@ -1283,13 +1298,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>7</v>
@@ -1297,13 +1312,13 @@
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>4</v>
@@ -1311,13 +1326,13 @@
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>4</v>
@@ -1325,13 +1340,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>4</v>
@@ -1339,13 +1354,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>4</v>
@@ -1353,13 +1368,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>4</v>
